--- a/reciepts/Zach/Zach Costs.xlsx
+++ b/reciepts/Zach/Zach Costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>P/N</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>$ Subtotal</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Fasteners/washers/bolts</t>
+  </si>
+  <si>
+    <t>Fastenal</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -179,6 +188,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -499,17 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -580,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G11" si="0">F4*E4</f>
+        <f t="shared" ref="G4:G12" si="0">F4*E4</f>
         <v>72</v>
       </c>
       <c r="H4" s="1">
@@ -607,7 +619,7 @@
         <f t="shared" si="0"/>
         <v>8.59</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -631,7 +643,7 @@
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -725,7 +737,7 @@
         <f t="shared" si="0"/>
         <v>5.15</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -749,63 +761,87 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>10.67</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7">
-        <f>SUM(E3:E11)</f>
-        <v>234.63</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
+        <f>SUM(G3:G12)</f>
+        <v>245.29999999999998</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9">
-        <f>SUM(H3:H11)</f>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10">
+        <f>SUM(H3:H12)</f>
         <v>10.039999999999999</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8">
-        <f>SUM(G13:H14)</f>
-        <v>244.67</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9">
+        <f>SUM(G14:H15)</f>
+        <v>255.33999999999997</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/reciepts/Zach/Zach Costs.xlsx
+++ b/reciepts/Zach/Zach Costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>P/N</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Laser Heat Sink</t>
   </si>
   <si>
-    <t>Laser Driver Heat Sink</t>
-  </si>
-  <si>
     <t>TTL-232R-3V3</t>
   </si>
   <si>
@@ -116,6 +113,33 @@
   </si>
   <si>
     <t>Fastenal</t>
+  </si>
+  <si>
+    <t>Poster Print</t>
+  </si>
+  <si>
+    <t>Final Poster Print</t>
+  </si>
+  <si>
+    <t>ENGR Computer Lab</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>ECE Store</t>
+  </si>
+  <si>
+    <t>Transistor laser driver</t>
+  </si>
+  <si>
+    <t>Flexmod P3</t>
+  </si>
+  <si>
+    <t>Laser Driver</t>
+  </si>
+  <si>
+    <t>Backup Laser Driver</t>
   </si>
 </sst>
 </file>
@@ -180,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -188,6 +212,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -511,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,13 +549,13 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -545,13 +572,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -575,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -592,14 +619,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G12" si="0">F4*E4</f>
+        <f t="shared" ref="G4:G15" si="0">F4*E4</f>
         <v>72</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -619,11 +646,11 @@
         <f t="shared" si="0"/>
         <v>8.59</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -643,14 +670,14 @@
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -669,7 +696,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -693,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
@@ -717,7 +744,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -737,16 +764,16 @@
         <f t="shared" si="0"/>
         <v>5.15</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -761,17 +788,17 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v>10.67</v>
@@ -787,61 +814,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <f>17.94+2.03</f>
+        <v>19.970000000000002</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>19.970000000000002</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1">
+        <v>35.99</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>35.99</v>
+      </c>
+      <c r="H15" s="6">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
+        <f>SUM(G3:G15)</f>
+        <v>305.89999999999998</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
-        <f>SUM(G3:G12)</f>
-        <v>245.29999999999998</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11">
+        <f>SUM(H3:H15)</f>
+        <v>45.339999999999996</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10">
-        <f>SUM(H3:H12)</f>
-        <v>10.039999999999999</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9">
-        <f>SUM(G14:H15)</f>
-        <v>255.33999999999997</v>
-      </c>
-      <c r="H16" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10">
+        <f>SUM(G17:H18)</f>
+        <v>351.23999999999995</v>
+      </c>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
